--- a/exports/PackSize-Flexibility/6-RandomVariable.xlsx
+++ b/exports/PackSize-Flexibility/6-RandomVariable.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9314720812182741</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06852791878172589</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3887,974 +3887,404 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>94</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -4912,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4947,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4982,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5017,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5052,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5087,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5122,7 +4552,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5157,7 +4587,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5192,7 +4622,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5227,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5262,7 +4692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5297,7 +4727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -5332,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -5367,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5402,7 +4832,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5437,7 +4867,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5472,7 +4902,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5507,7 +4937,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5542,7 +4972,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5577,7 +5007,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5612,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5647,7 +5077,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5682,7 +5112,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5717,7 +5147,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5726,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -5752,16 +5182,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -5787,13 +5217,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5822,16 +5252,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -5857,7 +5287,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5892,7 +5322,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5927,10 +5357,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5962,10 +5392,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5997,7 +5427,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -6032,16 +5462,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -6067,10 +5497,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6102,7 +5532,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -6137,7 +5567,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -6172,7 +5602,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -6207,10 +5637,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6242,13 +5672,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -6277,10 +5707,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6312,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6347,7 +5777,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -6382,7 +5812,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6417,7 +5847,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6452,7 +5882,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6487,7 +5917,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6522,7 +5952,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6557,7 +5987,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6592,7 +6022,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6627,7 +6057,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6662,7 +6092,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6697,7 +6127,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6732,10 +6162,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6767,7 +6197,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6802,13 +6232,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6837,7 +6267,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6872,7 +6302,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6907,7 +6337,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -6942,7 +6372,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -6977,7 +6407,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7012,10 +6442,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7047,7 +6477,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7082,7 +6512,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7117,7 +6547,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7152,7 +6582,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7187,7 +6617,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7222,13 +6652,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -7257,7 +6687,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -7292,7 +6722,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -7327,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -7362,7 +6792,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -7397,13 +6827,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -7432,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -7467,7 +6897,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -7502,7 +6932,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -7537,7 +6967,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7572,7 +7002,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7607,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -7642,7 +7072,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -7677,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -7712,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -7747,7 +7177,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -7782,7 +7212,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -7817,7 +7247,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -7852,7 +7282,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7887,7 +7317,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7922,7 +7352,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7957,7 +7387,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7992,7 +7422,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -8027,7 +7457,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -8062,7 +7492,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -8097,7 +7527,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -8132,13 +7562,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -8167,7 +7597,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -8202,13 +7632,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -8237,7 +7667,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -8387,1124 +7817,404 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>9.999999999999991</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>9.999999999999991</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="C34">
-        <v>3.333333333333332</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>9.999999999999991</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>10</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>10</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>94</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>9.999999999999991</v>
       </c>
     </row>
     <row r="97" spans="1:1">

--- a/exports/PackSize-Flexibility/6-RandomVariable.xlsx
+++ b/exports/PackSize-Flexibility/6-RandomVariable.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3816,480 +3816,3210 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.5</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4342,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4377,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4412,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4447,7 +7177,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4482,7 +7212,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4517,7 +7247,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4552,7 +7282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4587,7 +7317,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4622,7 +7352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4657,7 +7387,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4692,7 +7422,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4727,7 +7457,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4762,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4797,7 +7527,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4832,7 +7562,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4867,7 +7597,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4902,7 +7632,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4937,7 +7667,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4972,7 +7702,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5007,7 +7737,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5042,7 +7772,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5077,7 +7807,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5112,7 +7842,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5147,7 +7877,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5156,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -5182,16 +7912,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -5217,13 +7947,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5252,16 +7982,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -5287,7 +8017,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5322,7 +8052,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5357,10 +8087,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5392,10 +8122,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5427,7 +8157,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5462,16 +8192,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5497,10 +8227,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5532,7 +8262,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5602,7 +8332,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5637,10 +8367,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5672,13 +8402,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5707,10 +8437,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5742,7 +8472,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5812,7 +8542,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5847,7 +8577,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5917,7 +8647,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5952,7 +8682,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5987,7 +8717,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6022,7 +8752,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6092,7 +8822,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6127,7 +8857,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6162,10 +8892,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6197,7 +8927,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6232,13 +8962,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6267,7 +8997,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6302,7 +9032,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6337,7 +9067,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -6372,7 +9102,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -6407,7 +9137,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -6442,10 +9172,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6477,7 +9207,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -6512,7 +9242,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -6547,7 +9277,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -6582,7 +9312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -6617,7 +9347,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -6652,13 +9382,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6687,7 +9417,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -6722,7 +9452,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6757,7 +9487,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -6792,7 +9522,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6827,13 +9557,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6862,7 +9592,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6932,7 +9662,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6967,7 +9697,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7002,7 +9732,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7037,7 +9767,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -7072,7 +9802,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -7107,7 +9837,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -7142,7 +9872,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -7212,7 +9942,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -7247,7 +9977,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -7282,7 +10012,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7317,7 +10047,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7352,7 +10082,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7387,7 +10117,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7422,7 +10152,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -7457,7 +10187,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7492,7 +10222,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7527,7 +10257,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7562,13 +10292,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7597,7 +10327,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7632,13 +10362,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7667,7 +10397,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7746,480 +10476,3360 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="C34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0.5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
